--- a/algoritmo_genetico/Melhores de cada geração.xlsx
+++ b/algoritmo_genetico/Melhores de cada geração.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,23 +478,23 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>18.28494459331957</v>
+        <v>10.37748427455925</v>
       </c>
       <c r="D2" t="n">
-        <v>6.303575101207746</v>
+        <v>6.213426106311286</v>
       </c>
       <c r="E2" t="n">
-        <v>75.31623693621133</v>
+        <v>84.21421505343258</v>
       </c>
       <c r="F2" t="n">
-        <v>4.708246902654866</v>
+        <v>2.742210810810811</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'Li2O': 5, 'Y2O3': 9, 'Bi2O3': 4, 'Mn2O3': 8, 'TeO2': 5, 'V2O5': 2, 'As2O5': 2, 'Tb2O3': 4, 'Yb2O3': 9, 'CrO3': 7, 'K2SO4': 7, 'BaSO4': 7, 'MgSO4': 5, 'CuSO4': 9, 'CoSO4': 7, 'ZrSiO4': 7, 'AlPO4': 10, 'CaCO3': 6}</t>
+          <t>{'Nb2O5': 9, 'PbO': 4, 'As2O3': 3, 'NH4NO3': 9, 'CoO': 4, 'Sm2O3': 5, 'Gd2O3': 8, 'Ti2O3': 3, 'Pb3O4': 10, 'Ag2CO3': 4, 'K2CO3': 8, 'Ca(NO3)2': 7}</t>
         </is>
       </c>
     </row>
@@ -506,107 +506,23 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.680347698608657</v>
+        <v>10.37748427455925</v>
       </c>
       <c r="D3" t="n">
-        <v>6.658374727624066</v>
+        <v>6.213426106311286</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1318010934641</v>
+        <v>84.21421505343258</v>
       </c>
       <c r="F3" t="n">
-        <v>1.783490909090909</v>
+        <v>2.742210810810811</v>
       </c>
       <c r="G3" t="n">
         <v>12</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'La2O3': 8, 'Nd2O3': 5, 'Gd2O3': 2, 'CrO3': 8, 'K2SO4': 10, 'BiOCl': 9, 'BaSO4': 7, 'Tl2O3': 3, 'Na2CO3': 8, 'Cd(NO3)2': 8, 'H3BO3': 5, 'RbNO3': 4}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.385856580651679</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.391123037258321</v>
-      </c>
-      <c r="E4" t="n">
-        <v>103.8875847526081</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.735431578947368</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>{'La2O3': 8, 'Nd2O3': 5, 'Na2CO3': 8, 'Cd(NO3)2': 8, 'H3BO3': 5, 'RbNO3': 4}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.39847854811541</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.695640215829984</v>
-      </c>
-      <c r="E5" t="n">
-        <v>92.72787262427578</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4187192307692308</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>{'Li2CO3': 8, 'Na2CO3': 9, 'Cd(NO3)2': 9}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.5145174681359</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.063822470162047</v>
-      </c>
-      <c r="E6" t="n">
-        <v>67.20651432453022</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.96419765625</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>{'Li2O': 5, 'Sb2O3': 3, 'Bi2O3': 11, 'CrO3': 58, 'BaSO4': 7, 'MgSO4': 5, 'CuSO4': 9, 'CoSO4': 7, 'ZrSiO4': 7, 'AlPO4': 10, 'CaCO3': 6}</t>
+          <t>{'Nb2O5': 9, 'PbO': 4, 'As2O3': 3, 'NH4NO3': 9, 'CoO': 4, 'Sm2O3': 5, 'Gd2O3': 8, 'Ti2O3': 3, 'Pb3O4': 10, 'Ag2CO3': 4, 'K2CO3': 8, 'Ca(NO3)2': 7}</t>
         </is>
       </c>
     </row>

--- a/algoritmo_genetico/Melhores de cada geração.xlsx
+++ b/algoritmo_genetico/Melhores de cada geração.xlsx
@@ -478,23 +478,23 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.644029232529793</v>
+        <v>10.09099863626659</v>
       </c>
       <c r="D2" t="n">
-        <v>6.426117182021622</v>
+        <v>6.110205640751736</v>
       </c>
       <c r="E2" t="n">
-        <v>95.30716790537663</v>
+        <v>91.86568587054964</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9926069767441861</v>
+        <v>2.683024242424243</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'Fe2O3': 9, 'CaO': 3, 'B2O3': 10, 'Nb2O5': 4, 'Mn2O3': 7, 'Li2SO4': 10, 'BaSO4': 6, 'CO2': 8, 'LiNO3': 9, 'CdSO4': 10, 'KNO3': 1, 'C6H12O6': 5, 'CaCO3': 4}</t>
+          <t>{'Bi2O3': 1, 'Cu2O': 1, 'CeO2': 6, 'MnO2': 10, 'CrO3': 6, '(NH4)2SO4': 2, 'SeO2': 3, 'HgO': 1, 'BaSO4': 1, 'CO2': 2}</t>
         </is>
       </c>
     </row>
@@ -506,23 +506,23 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9627014946693876</v>
+        <v>3.150893567858989</v>
       </c>
       <c r="D3" t="n">
-        <v>8.867958309753316</v>
+        <v>7.259688659482732</v>
       </c>
       <c r="E3" t="n">
-        <v>113.7955397801543</v>
+        <v>67.88668387469194</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3003529411764706</v>
+        <v>0.8855833333333334</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'Li2CO3': 6, 'Ca(NO3)2': 6, 'AlPO4': 5}</t>
+          <t>{'As2O3': 4, 'Co2O3': 6, 'Ca(NO3)2': 7, 'KNO3': 7}</t>
         </is>
       </c>
     </row>

--- a/algoritmo_genetico/Melhores de cada geração.xlsx
+++ b/algoritmo_genetico/Melhores de cada geração.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Score</t>
+          <t>Fitness</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -478,23 +478,23 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>10.09099863626659</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>6.110205640751736</v>
+        <v>6.426467162085284</v>
       </c>
       <c r="E2" t="n">
-        <v>91.86568587054964</v>
+        <v>62.01572222901181</v>
       </c>
       <c r="F2" t="n">
-        <v>2.683024242424243</v>
+        <v>18.63680235294118</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'Bi2O3': 1, 'Cu2O': 1, 'CeO2': 6, 'MnO2': 10, 'CrO3': 6, '(NH4)2SO4': 2, 'SeO2': 3, 'HgO': 1, 'BaSO4': 1, 'CO2': 2}</t>
+          <t>{'Fe2O3': 10, 'CdO': 9, 'Nb2O5': 8, 'CeO2': 3, 'Fe3O4': 9, 'Pr6O11': 6, 'Lu2O3': 10, 'MgSO4': 6, 'PbO2': 6, 'MoO2': 2, 'CuSO4': 3, 'CoSO4': 2, 'AgNO3': 6, 'NaHSO4': 5}</t>
         </is>
       </c>
     </row>
@@ -506,23 +506,527 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.150893567858989</v>
+        <v>0.1450817183943718</v>
       </c>
       <c r="D3" t="n">
-        <v>7.259688659482732</v>
+        <v>6.517494392310458</v>
       </c>
       <c r="E3" t="n">
-        <v>67.88668387469194</v>
+        <v>116.736544261389</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8855833333333334</v>
+        <v>0.14019</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'As2O3': 4, 'Co2O3': 6, 'Ca(NO3)2': 7, 'KNO3': 7}</t>
+          <t>{'SiO2': 5, 'ZrO2': 4, 'CaO': 6, 'MnO': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1450817183943718</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.517494392310458</v>
+      </c>
+      <c r="E4" t="n">
+        <v>116.736544261389</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.14019</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{'SiO2': 5, 'ZrO2': 4, 'CaO': 6, 'MnO': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1450817183943718</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.517494392310458</v>
+      </c>
+      <c r="E5" t="n">
+        <v>116.736544261389</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.14019</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{'SiO2': 5, 'ZrO2': 4, 'CaO': 6, 'MnO': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1450817183943718</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.517494392310458</v>
+      </c>
+      <c r="E6" t="n">
+        <v>116.736544261389</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.14019</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{'SiO2': 5, 'ZrO2': 4, 'CaO': 6, 'MnO': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1450817183943718</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.517494392310458</v>
+      </c>
+      <c r="E7" t="n">
+        <v>116.736544261389</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.14019</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{'SiO2': 5, 'ZrO2': 4, 'CaO': 6, 'MnO': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1450817183943718</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.517494392310458</v>
+      </c>
+      <c r="E8" t="n">
+        <v>116.736544261389</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.14019</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{'SiO2': 5, 'ZrO2': 4, 'CaO': 6, 'MnO': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1450817183943718</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.517494392310458</v>
+      </c>
+      <c r="E9" t="n">
+        <v>116.736544261389</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.14019</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{'SiO2': 5, 'ZrO2': 4, 'CaO': 6, 'MnO': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1440470443584908</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.684619728217875</v>
+      </c>
+      <c r="E10" t="n">
+        <v>121.0677124980024</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.09741428571428572</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{'SiO2': 5, 'ZrO2': 4, 'MnO': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1450817183943718</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.517494392310458</v>
+      </c>
+      <c r="E11" t="n">
+        <v>116.736544261389</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.14019</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{'SiO2': 5, 'ZrO2': 4, 'CaO': 6, 'MnO': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1450817183943718</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.517494392310458</v>
+      </c>
+      <c r="E12" t="n">
+        <v>116.736544261389</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.14019</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{'SiO2': 5, 'ZrO2': 4, 'CaO': 6, 'MnO': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1450817183943718</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.517494392310458</v>
+      </c>
+      <c r="E13" t="n">
+        <v>116.736544261389</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.14019</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{'SiO2': 5, 'ZrO2': 4, 'CaO': 6, 'MnO': 5}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1449908958647683</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.31420295936214</v>
+      </c>
+      <c r="E14" t="n">
+        <v>115.2998556976048</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.54728</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{'Na2O': 2, 'Al2O3': 8, 'CaO': 1, 'WO3': 1, 'Cr2O3': 8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1433706465644222</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8.01754442499824</v>
+      </c>
+      <c r="E15" t="n">
+        <v>132.4910720968016</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2002933333333333</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{'SiO2': 5, 'ZrO2': 4, 'CaO': 6, 'MnO': 5, 'K2CO3': 1, 'Ca(NO3)2': 9}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1421632922706119</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8.054799999885264</v>
+      </c>
+      <c r="E16" t="n">
+        <v>132.751805307835</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4914181818181818</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{'Na2O': 2, 'Al2O3': 8, 'CaO': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1421632922706119</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8.054799999885264</v>
+      </c>
+      <c r="E17" t="n">
+        <v>132.751805307835</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4914181818181818</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{'Na2O': 2, 'Al2O3': 8, 'CaO': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1421632922706119</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8.054799999885264</v>
+      </c>
+      <c r="E18" t="n">
+        <v>132.751805307835</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4914181818181818</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{'Na2O': 2, 'Al2O3': 8, 'CaO': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1421632922706119</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8.054799999885264</v>
+      </c>
+      <c r="E19" t="n">
+        <v>132.751805307835</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4914181818181818</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{'Na2O': 2, 'Al2O3': 8, 'CaO': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1421632922706119</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8.054799999885264</v>
+      </c>
+      <c r="E20" t="n">
+        <v>132.751805307835</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4914181818181818</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{'Na2O': 2, 'Al2O3': 8, 'CaO': 1}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1421632922706119</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8.054799999885264</v>
+      </c>
+      <c r="E21" t="n">
+        <v>132.751805307835</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4914181818181818</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{'Na2O': 2, 'Al2O3': 8, 'CaO': 1}</t>
         </is>
       </c>
     </row>
